--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1361.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1361.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.186550175809572</v>
+        <v>0.8549935817718506</v>
       </c>
       <c r="B1">
-        <v>2.600810763549519</v>
+        <v>2.867308616638184</v>
       </c>
       <c r="C1">
-        <v>3.889086100029127</v>
+        <v>8.781153678894043</v>
       </c>
       <c r="D1">
-        <v>2.750360495568656</v>
+        <v>2.026142358779907</v>
       </c>
       <c r="E1">
-        <v>1.145106796914945</v>
+        <v>1.147864580154419</v>
       </c>
     </row>
   </sheetData>
